--- a/pybangla/eval_data/eval_data.xlsx
+++ b/pybangla/eval_data/eval_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1340">
   <si>
     <t xml:space="preserve">Input_Text</t>
   </si>
@@ -2367,6 +2367,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Ponds Nourishing Facial Scrub </t>
     </r>
@@ -2376,6 +2377,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ওয়ান হান্ড্রেড </t>
     </r>
@@ -2385,6 +2387,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">grams </t>
     </r>
@@ -2394,6 +2397,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">সিক্সটি</t>
     </r>
@@ -2403,6 +2407,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2412,6 +2417,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">নাইন কোর সিক্সটি</t>
     </r>
@@ -2421,6 +2427,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2430,6 +2437,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ফোর লাখ সেভেন্টি</t>
     </r>
@@ -2439,6 +2447,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2448,6 +2457,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">থ্রি থাউজ্যান্ড সেভেন হান্ড্রেড ফিফটি</t>
     </r>
@@ -2457,6 +2467,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2466,6 +2477,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ওয়ান </t>
     </r>
@@ -2475,6 +2487,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">", </t>
     </r>
@@ -2498,6 +2511,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"clean </t>
     </r>
@@ -2507,6 +2521,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">এন্ড </t>
     </r>
@@ -2516,6 +2531,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">clear face wash </t>
     </r>
@@ -2525,6 +2541,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ফিফটি </t>
     </r>
@@ -2534,6 +2551,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">milliliters </t>
     </r>
@@ -2543,6 +2561,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">টুয়েলভ কোর থার্টি</t>
     </r>
@@ -2552,6 +2571,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2561,6 +2581,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ফোর লাখ ফিফটি</t>
     </r>
@@ -2570,6 +2591,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2579,6 +2601,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">সিক্স থাউজ্যান্ড সেভেন হান্ড্রেড এইটি</t>
     </r>
@@ -2588,6 +2611,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2597,6 +2621,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">নাইন </t>
     </r>
@@ -2606,6 +2631,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">", </t>
     </r>
@@ -2713,6 +2739,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">" </t>
     </r>
@@ -2722,6 +2749,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">সেভেন্টিন কোর নাইনটি লাখ ফিফটি</t>
     </r>
@@ -2731,6 +2759,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2740,6 +2769,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ফোর থাউজ্যান্ড টোয়েন্টি</t>
     </r>
@@ -2749,6 +2779,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2758,6 +2789,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ওয়ান কোর ইলেভেন লাখ টোয়েন্টি</t>
     </r>
@@ -2767,6 +2799,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2776,6 +2809,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ফোর থাউজ্যান্ড ফাইভ হান্ড্রেড সিক্সটি</t>
     </r>
@@ -2785,6 +2819,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2794,6 +2829,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">টু যোগাযোগ করতে হলে জিরো ওয়ান সেভেন নাইন জিরো ফাইভ ফোর জিরো টু ডাবল ওয়ান অথবা জিরো ওয়ান সেভেন নাইন জিরো ফাইভ ফোর ট্রিপল ওয়ান ওয়ান নম্বরে যোগাযোগ করতে হবে</t>
     </r>
@@ -2803,6 +2839,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">", </t>
     </r>
@@ -4098,6 +4135,716 @@
   <si>
     <t xml:space="preserve">['one hundred twenty-third']</t>
   </si>
+  <si>
+    <t xml:space="preserve"># "১৫-১১-১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জানুয়ারি ১৫, ১৯৯৫ বা March 10, 1988",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "২০০০সালের ১লা জানুয়ারি",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৯৯৫ সালের ১৫ই আগস্ট",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৯৯০ সালের ৩১শে ডিসেম্বর",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৯৮৫ সালের ৫মে",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৯৭০ সালের ২০শে জুন",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৫ আগস্ট ১৯৯৫",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "৩১ ডিসেম্বর ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "৫মে ১৯৮৫",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "২০শে জুন ১৯৭০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "অক্টোবর ৫, ২০০০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ডিসেম্বর ৩১, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মে ৫, ১৯৮৫",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জুন ২০, ১৯৭০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মার্চ ১০, ১৯৮৮",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জানুয়ারি ১৫, ১৯৯৫"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জানুয়ারি ১৫, ১৯৯৫",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 'ধন্যবাদ, বুঝতে না পারার জন্য জানিয়েছেন। আমি আবার সহজভাবে বলছি। আমি জানতে চাই, আপনার জন্ম তারিখ (Date of Birth) কী? দয়া করে মাস, দিন, এবং সাল—এইভাবে বলবেন। উদাহরণ: - "জানুয়ারি ১৫, ১৯৯৫" - "মার্চ ১০, ১৯৮৮" - "অক্টোবর ৫, ২০০০" আপনার জন্ম তারিখটি মাস, দিন, এবং সালসহ বলুন, দয়া করে। যদি বাংলায় বলেন, সেটিও ঠিক আছে—আমি নিশ্চিত করে নেব।',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Phone numbers: ০১৭১৩ ৭২৭ ৩২৪ ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Mixed separators: ০১৭১৩ -৭২৭- ৩২৪ ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Multiple numbers: ৫৫১০ ৫৫ ৫৫১০ ৫৫১০ ৫৫ ৫৫১০ ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Single number: ৫৫১০ ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "English: 123 456 789 ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "English with hyphen: 123-456-789 ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Mixed: 123 -456- 789 ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Two numbers only: ১২৩ ৪৫৬ ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Four numbers: ১০০ ২০০ ৩০০ ৪০০ ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 'ধন্যবাদ, নিশ্চিত করার জন্য। আপনার ঠিকানা আমি নোট করেছি: ১২৯৩, রোড ১৮, এভিনিউ ২, মিরপুর ৩, পল্লবী, ঢাকা এখন পরবর্তী ধাপে যাচ্ছি। এবার, আপনার জন্ম তারিখটি (Date of Birth) জানতে চাই। দয়া করে মাস-দিন-সাল (Month-Day-Year) ফরম্যাটে বলুন। উদাহরণ: "জানুয়ারি ১৫, ১৯৯৫" বা "March 10, 1988" আপনার জন্ম তারিখটি বলুন, দয়া করে।'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "নাম আর শেষ ৪ সংখ্যা ৪৫৬৭। ওটিপি 938221।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ভোটার আইডি ৪৫৬৭ আমি নোট করেছি",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># # "জাতীয় পরিচয়পত্র ৪৫৬৭ আমি নোট করেছি",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># # "ড্রাইভিং লাইসেন্স ৪৫৬৭",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "সিভিভি (CVV): 123",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ওটিপি (OTP): 123456",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "রেফারেন্স আইডি 12345"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আপনি বলেছেন: ০১৬৭৩ [পজ] ১ ১ ০ [পজ] ৭ ২ ০ তাহলে আপনার পুরো নম্বরটি হচ্ছে"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "এই প্রক্রিয়াটি আনুমানিক ১০-১৫ মিনিট সময় নিতে পারে।"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "The numbers are 10 নন-ক্যাডার 20.5  30, and 40.75. সুপারিশ ২০৩০.৩০ 12 23 45",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার পাসপোর্ট নম্বর P87654321 ছিল।, 1995-1969 and phone number 01773-550379",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার পাসপোর্ট নম্বর P87654321 ছিল।, 1995 1969 and phone number 01773-550379"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "অক্টোবর ৫, ১৯৯০",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#"বাড়ি নম্বর: ১২৯৩ - রাস্তা নম্বর: ১৮ - এভিনিউ: ২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#"বাড়ি নম্বর: 12345 - রাস্তা নম্বর: 18 - এভিনিউ: 3",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#"ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০ —ঠিক আছে?",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ধন্যবাদ। তাহলে আপনার জন্ম তারিখ হচ্ছে ১৫ই নভেম্বর, ১৯৯০—ঠিক আছে? আমি আবার নিশ্চিত করছি: আপনার জন্ম তারিখ ১৫-১১-১৯৯০, সঠিক তো? এবার, দয়া করে আপনার যোগাযোগের জন্য সবচেয়ে ভালো ফোন নম্বরটি বলবেন? নম্বরটি ধাপে ধাপে বললে ভালো হয়, যেমন: 01773559379।"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># " নিশ্চিত করছি—আপনার কোড: ৫৫১০ ৫৫ ৫৫১০ এটি কি সঠিক?",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "করছি—আপনার চার ডিজিটের কোড: ৫৩১০ এটি কি সঠিক?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৯৯০-১৯৯৫ সালে"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আজকের দাম $50।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তিনি ৳৫০০ খরচ করেছেন।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "€1,245.75",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "7000¥",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "₿0.015",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "$100",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># "Price is 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">円 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">only.",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Cost: 1,000.50€",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "We acceptA $100 or no currency.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "No currency here, just 2,500 in the text.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Value is €2,500.25 guaranteed.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "New total: C$1500.75.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Refund: 500 no currency symbol.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Mixed: A$2,000.99 or 3,000.50€",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">この商品は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1,200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">円です。支払い金額は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$1,000.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">でした。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">請求額は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CHF 1,234,567,890.987654321</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">振込額は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">200.000001 SAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">請求額は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">30,75 €</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># "দাম €30,75 অথবা $50",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># "দয়া করে ¥1,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">¥2,000 সীমার মধ্যে থাকুন।",</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># "50678.90 ডলার",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "2050.8 ইউরো",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আরও যদি অস্বাভাবিক কেস 6,543,21,789,01,23,45678,2050.8 ইউরো আরও যদি অস্বাভাবিক কেস",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আরও যদি অস্বাভাবিক কেস 6,54321,78901,23,45678,2050.8 ইউরো আরও যদি অস্বাভাবিক কেস",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># # আরও উদাহরণ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আরও যদি অস্বাভাবিক কেস Mixed: A$2,000.99 or 3,000.50€ আরও যদি অস্বাভাবিক কেস",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আরও যদি অস্বাভাবিক কেস $2,00,000.99 should match; also €3.000,50 and 1234,56 EUR আরও যদি অস্বাভাবিক কেস ",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "INR 12,34,56,789.12 and 12,34,56,789 টাকার হিসাব।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "US$1234.56, CHF 1234,56 এবং 134.56 USD — সব ধরুন।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "৳2,50,000.00 টাকাও আছে।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "৳2,50,000.00 আছে।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "1,23,45678,2050.8 ইউরো"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১,৭১৩ ইউরো",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "$১২৯৩.১২৯৩",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "০১৭১৩ ৭২৭"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "৳১২৯৩.১২৯৩",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "এই প্রক্রিয়াটি আনুমানিক ১০-১৫ মিনিট সময় নিতে পারে। ",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জাতীয় পরিচয় নম্বরঃ ১৯৯০-১৯৯৫ সালে জাতীয় পরিচয় নম্বরঃ 0987654321",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জাতীয় পরিচয় নম্বরঃ 0987-654-321 জাতীয় পরিচয় নম্বরঃ 0987654321"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Card number 98765432 is valid until 12/25.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Card number 9876-5432-1098-7654 is valid until 12/25."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "এই বিলটি ₽5000 এর"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ডিএসইতে লেনদেন ৩০০ কোটি টাকার নিচে নেমে এসেছে। লেনদেন হয়েছে ২৯০ কোটি ১৩ লাখ টাকার। গতকাল মঙ্গলবার লেনদেন হয়েছে ৩৩৯ কোটি ৭৫ লাখ টাকার।"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 'ধন্যবাদ। আপনি বললেন "হ্যাঁ, এই..."—আপনি কি গাড়ির তথ্য দিতে প্রস্তুত? দয়া করে শুরু করুন গাড়ির ব্র্যান্ড ও মডেল দিয়ে। উদাহরণস্বরূপ: — "Toyota Corolla" — অথবা "Honda City" আপনার গাড়ির ব্র্যান্ড ও মডেলটি বলবেন? আমি এরপর ধাপে ধাপে বাকি তথ্য সংগ্রহ করব।'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "hello পাসপোর্ট নম্বর ই১২৩৪৫৬৭৭, hi পাসপোর্ট নম্বর ই১২৩৪৫৬৭৭,",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "passport number: A12345678 and amar account number A23456781 ",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ই-পাসপোর্ট আইডি: উ৯৮৭৬৫৪৩২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "e-passport no: ক১২৩৪৫৬৭৮",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "পাসপোর্ট: অ৯৯৯৯৯৯৯৯",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "পাসপোর্ট নম্বর ই১২৩৪৫৬৭৭"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "পাসপোর্ট নম্বর স১২৩৪৫৬৭৭",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "Your customer ID 123-456-789-012 is valid.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আমার পাসপোর্ট নম্বর A01234567 এবং তার পাসপোর্ট নম্বর 987654321।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "নতুন ই-পাসপোর্ট নম্বর E12345678 ইস্যু করা হয়েছে।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তিনি পুরাতন পাসপোর্ট নম্বর 1234567 ব্যবহার করেছেন।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মেশিন রিডেবল পাসপোর্ট নম্বর B76543210।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার পাসপোর্ট নম্বর P87654321 ছিল।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার পাসপোর্ট নম্বর P০১২৩৪৫৬৭ ছিল।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "বাংলা নম্বর হিসেবে পাসপোর্ট নম্বর এ০১২৩৪৫৬৭ ও ই১২৩৪৫৬৭৮।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"পাসপোর্ট নম্বর এ০১২৩৪৫৬৭ ও ই১২৩৪৫৬৭৮ and এ০১২৩৪৫৬৭ ও ই১২৩৪৫৬৭৮।",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># নতুন ই-পাসপোর্ট নম্বর E12345678 ইস্যু করা হয়েছে।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># তিনি পুরাতন পাসপোর্ট নম্বর 1234567 ব্যবহার করেছেন।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># মেশিন রিডেবল পাসপোর্ট নম্বর B76543210।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># তার পাসপোর্ট নম্বর P87654321 ছিল।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># তার পাসপোর্ট নম্বর P০১২৩৪৫৬৭ ছিল।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># পাসপোর্ট নম্বর এ০১২৩৪৫৬৭ ও ই১২৩৪৫৬৭৮।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার পাসপোর্ট নম্বর P87654321 ছিল।, 1995-1969 and phone number 01773-550379"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "আমার জন্ম সাল ১৯৯২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার জন্ম ১৯৯২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জন্ম সাল ১৯৯২ সালে",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "সে জন্ম ১৯৯২ সালে",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জন্মসাল ১৯৯২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জন্ম: ১৯৯২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জন্ম - ১৯৯২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "জন্মসাল 1792",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার birth date ১৯৯২",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "তার birth year ১৯৯২ সালে",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "His birth year 1992",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "born in 1995",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "১৯৯০ সালে জন্ম",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># # Should NOT extract (no birth context)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "i am saiful 1400",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মোট টাকা ১৯৯৫",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "রুম নম্বর 16021",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ফোন: 16021",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ফোন নম্বর: 16021",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "বয়স 1995",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "সাল 2000",  # Just "year 2000" without birth context</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মো: আব্দুল করিম",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মোঃ রহিম উদ্দিন",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মো. সালাম",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মোছা: ফাতেমা বেগম",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মোসা. খাদিজা",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ইঞ্জিঃ জাহিদ হাসান",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "এবিসি লিঃ কোম্পানি",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "এবিসি লি. কোম্পানি"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "ডাঃ করিম",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># "মোট টাকা ১০০",</t>
+  </si>
 </sst>
 </file>
 
@@ -4106,7 +4853,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4156,12 +4903,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4169,6 +4918,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4219,13 +4974,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4234,10 +4993,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4249,7 +5004,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4262,10 +5017,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4459,8 +5210,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A386" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A401" activeCellId="0" sqref="A401:A566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4471,25 +5222,26 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="2" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -11855,25 +12607,25 @@
       <c r="G352" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H352" s="11"/>
-      <c r="I352" s="11"/>
-      <c r="J352" s="11"/>
-      <c r="K352" s="11"/>
-      <c r="L352" s="11"/>
-      <c r="M352" s="11"/>
-      <c r="N352" s="11"/>
-      <c r="O352" s="11"/>
-      <c r="P352" s="11"/>
-      <c r="Q352" s="11"/>
-      <c r="R352" s="11"/>
-      <c r="S352" s="11"/>
-      <c r="T352" s="11"/>
-      <c r="U352" s="11"/>
-      <c r="V352" s="11"/>
-      <c r="W352" s="11"/>
-      <c r="X352" s="11"/>
-      <c r="Y352" s="11"/>
-      <c r="Z352" s="11"/>
+      <c r="H352" s="10"/>
+      <c r="I352" s="10"/>
+      <c r="J352" s="10"/>
+      <c r="K352" s="10"/>
+      <c r="L352" s="10"/>
+      <c r="M352" s="10"/>
+      <c r="N352" s="10"/>
+      <c r="O352" s="10"/>
+      <c r="P352" s="10"/>
+      <c r="Q352" s="10"/>
+      <c r="R352" s="10"/>
+      <c r="S352" s="10"/>
+      <c r="T352" s="10"/>
+      <c r="U352" s="10"/>
+      <c r="V352" s="10"/>
+      <c r="W352" s="10"/>
+      <c r="X352" s="10"/>
+      <c r="Y352" s="10"/>
+      <c r="Z352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="s">
@@ -12882,501 +13634,1159 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B401" s="0"/>
       <c r="G401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B402" s="0"/>
       <c r="G402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B403" s="0"/>
       <c r="G403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B404" s="0"/>
       <c r="G404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B405" s="0"/>
       <c r="G405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B406" s="0"/>
       <c r="G406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B407" s="0"/>
       <c r="G407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B408" s="0"/>
       <c r="G408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B409" s="0"/>
       <c r="G409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B410" s="0"/>
       <c r="G410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B411" s="0"/>
       <c r="G411" s="7"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B412" s="0"/>
       <c r="G412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B413" s="0"/>
       <c r="G413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B414" s="0"/>
       <c r="G414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B415" s="0"/>
       <c r="G415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B416" s="0"/>
       <c r="G416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B417" s="0"/>
       <c r="G417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B418" s="0"/>
       <c r="G418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B419" s="0"/>
       <c r="G419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B420" s="0"/>
       <c r="G420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B421" s="0"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B422" s="0"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B423" s="0"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B424" s="0"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B425" s="0"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B426" s="0"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B427" s="0"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B428" s="0"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B429" s="0"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B430" s="0"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B431" s="0"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B432" s="0"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B433" s="0"/>
       <c r="G433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B434" s="0"/>
       <c r="G434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B435" s="0"/>
       <c r="G435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B436" s="0"/>
       <c r="G436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B437" s="0"/>
       <c r="G437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B438" s="0"/>
       <c r="G438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B439" s="0"/>
       <c r="G439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B440" s="0"/>
       <c r="G440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="0"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B442" s="0"/>
       <c r="G442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B443" s="0"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B444" s="0"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B445" s="0"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B446" s="0"/>
       <c r="G446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B447" s="0"/>
       <c r="G447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B448" s="0"/>
       <c r="G448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B449" s="0"/>
       <c r="G449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B450" s="0"/>
       <c r="G450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B451" s="0"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B452" s="0"/>
       <c r="G452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B453" s="0"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B454" s="0"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B455" s="0"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B456" s="0"/>
       <c r="G456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B457" s="0"/>
       <c r="G457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B458" s="0"/>
       <c r="G458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B459" s="0"/>
       <c r="G459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B460" s="0"/>
       <c r="G460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B461" s="0"/>
       <c r="G461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B462" s="0"/>
       <c r="G462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B463" s="0"/>
       <c r="G463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B464" s="0"/>
       <c r="G464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B465" s="0"/>
       <c r="G465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B466" s="0"/>
       <c r="G466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B467" s="0"/>
       <c r="G467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B468" s="0"/>
       <c r="G468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B469" s="0"/>
       <c r="G469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B470" s="0"/>
       <c r="G470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B471" s="0"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B472" s="0"/>
       <c r="G472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B473" s="0"/>
       <c r="G473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B474" s="0"/>
       <c r="G474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B475" s="0"/>
       <c r="G475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B476" s="0"/>
       <c r="G476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B477" s="0"/>
       <c r="G477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B478" s="0"/>
       <c r="G478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B479" s="0"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B480" s="0"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B481" s="0"/>
       <c r="G481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="0"/>
       <c r="G482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B483" s="0"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B484" s="0"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B485" s="0"/>
       <c r="G485" s="7"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B486" s="0"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B487" s="0"/>
       <c r="G487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B488" s="0"/>
       <c r="G488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B489" s="0"/>
       <c r="G489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B490" s="0"/>
       <c r="G490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B491" s="0"/>
       <c r="G491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B492" s="0"/>
       <c r="G492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B493" s="0"/>
       <c r="G493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B494" s="0"/>
       <c r="G494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B495" s="0"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B496" s="0"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B497" s="0"/>
       <c r="G497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B498" s="0"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B499" s="0"/>
       <c r="G499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B500" s="0"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B501" s="0"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B502" s="0"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B503" s="0"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B504" s="0"/>
       <c r="G504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B505" s="0"/>
       <c r="G505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B506" s="0"/>
       <c r="G506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B507" s="0"/>
       <c r="G507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B508" s="0"/>
       <c r="G508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B509" s="0"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B510" s="0"/>
       <c r="G510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B511" s="0"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B512" s="0"/>
       <c r="G512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B513" s="0"/>
       <c r="G513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B514" s="0"/>
       <c r="G514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B515" s="0"/>
       <c r="G515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B516" s="0"/>
       <c r="G516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B517" s="0"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B518" s="0"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B519" s="0"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B520" s="0"/>
       <c r="G520" s="7"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B521" s="0"/>
       <c r="G521" s="7"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B522" s="0"/>
       <c r="G522" s="7"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B523" s="0"/>
       <c r="G523" s="7"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B524" s="0"/>
       <c r="G524" s="7"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B525" s="0"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B526" s="0"/>
       <c r="G526" s="7"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B527" s="0"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B528" s="0"/>
       <c r="G528" s="7"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B529" s="0"/>
       <c r="G529" s="7"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B530" s="0"/>
       <c r="G530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B531" s="0"/>
       <c r="G531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B532" s="0"/>
       <c r="G532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B533" s="0"/>
       <c r="G533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B534" s="0"/>
       <c r="G534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B535" s="0"/>
       <c r="G535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B536" s="0"/>
       <c r="G536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B537" s="0"/>
       <c r="G537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B538" s="0"/>
       <c r="G538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B539" s="0"/>
       <c r="G539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B540" s="0"/>
       <c r="G540" s="7"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B541" s="0"/>
       <c r="G541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B542" s="0"/>
       <c r="G542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B543" s="0"/>
       <c r="G543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B544" s="0"/>
       <c r="G544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B545" s="0"/>
       <c r="G545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B546" s="0"/>
       <c r="G546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B547" s="0"/>
       <c r="G547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B548" s="0"/>
       <c r="G548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B549" s="0"/>
       <c r="G549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B550" s="0"/>
       <c r="G550" s="7"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B551" s="0"/>
       <c r="G551" s="7"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B552" s="0"/>
       <c r="G552" s="7"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B553" s="0"/>
       <c r="G553" s="7"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B554" s="0"/>
       <c r="G554" s="7"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B555" s="0"/>
       <c r="G555" s="7"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B556" s="0"/>
       <c r="G556" s="7"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B557" s="0"/>
       <c r="G557" s="7"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B558" s="0"/>
       <c r="G558" s="7"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B559" s="0"/>
       <c r="G559" s="7"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B560" s="0"/>
       <c r="G560" s="7"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B561" s="0"/>
       <c r="G561" s="7"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B562" s="0"/>
       <c r="G562" s="7"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B563" s="0"/>
       <c r="G563" s="7"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B564" s="0"/>
       <c r="G564" s="7"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B565" s="0"/>
       <c r="G565" s="7"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B566" s="0"/>
       <c r="G566" s="7"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
